--- a/data/master mismatches.xlsx
+++ b/data/master mismatches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC372E58-0CDB-410D-9213-81880E12139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D81E97-A41B-4478-B10D-C5D5729DD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
+    <workbookView xWindow="9945" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="1220">
   <si>
     <t>iNaturalist_name</t>
   </si>
@@ -2786,6 +2786,915 @@
   </si>
   <si>
     <t>Androcalva viscidula</t>
+  </si>
+  <si>
+    <t>Senna pendula</t>
+  </si>
+  <si>
+    <t>Daucus carota</t>
+  </si>
+  <si>
+    <t>Hordeum murinum</t>
+  </si>
+  <si>
+    <t>Convolvulus sabatius</t>
+  </si>
+  <si>
+    <t>Cakile maritima</t>
+  </si>
+  <si>
+    <t>Atriplex prostrata</t>
+  </si>
+  <si>
+    <t>Mentha pulegium</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Indigofera spicata</t>
+  </si>
+  <si>
+    <t>Emilia sonchifolia</t>
+  </si>
+  <si>
+    <t>Murraya koenigii</t>
+  </si>
+  <si>
+    <t>Lysimachia arvensis</t>
+  </si>
+  <si>
+    <t>Verbena bonariensis</t>
+  </si>
+  <si>
+    <t>Plantago coronopus</t>
+  </si>
+  <si>
+    <t>Celosia argentea</t>
+  </si>
+  <si>
+    <t>Passiflora foetida</t>
+  </si>
+  <si>
+    <t>Melissa officinalis</t>
+  </si>
+  <si>
+    <t>Oenothera stricta</t>
+  </si>
+  <si>
+    <t>Ajuga reptans</t>
+  </si>
+  <si>
+    <t>Romulea rosea</t>
+  </si>
+  <si>
+    <t>Crotalaria beddomeana</t>
+  </si>
+  <si>
+    <t>Cymbalaria muralis</t>
+  </si>
+  <si>
+    <t>Lobelia erinus</t>
+  </si>
+  <si>
+    <t>matched name should actually be Cheilocostus potierae</t>
+  </si>
+  <si>
+    <t>change name</t>
+  </si>
+  <si>
+    <t>Hellenia speciosa</t>
+  </si>
+  <si>
+    <t>Gladiolus caryophyllaceus</t>
+  </si>
+  <si>
+    <t>Gazania rigens</t>
+  </si>
+  <si>
+    <t>Melinis repens</t>
+  </si>
+  <si>
+    <t>Selaginella kraussiana</t>
+  </si>
+  <si>
+    <t>Nandina domestica</t>
+  </si>
+  <si>
+    <t>Solanum seaforthianum</t>
+  </si>
+  <si>
+    <t>Agave americana</t>
+  </si>
+  <si>
+    <t>Calotropis procera</t>
+  </si>
+  <si>
+    <t>Cylindropuntia fulgida</t>
+  </si>
+  <si>
+    <t>Leucas lavandulifolia</t>
+  </si>
+  <si>
+    <t>Freesia leichtlinii</t>
+  </si>
+  <si>
+    <t>Indigofera suffruticosa</t>
+  </si>
+  <si>
+    <t>Papaver somniferum</t>
+  </si>
+  <si>
+    <t>Parentucellia latifolia</t>
+  </si>
+  <si>
+    <t>Oenothera drummondii</t>
+  </si>
+  <si>
+    <t>Salix babylonica</t>
+  </si>
+  <si>
+    <t>Oxypetalum coeruleum</t>
+  </si>
+  <si>
+    <t>Sonchus asper</t>
+  </si>
+  <si>
+    <t>Vicia sativa</t>
+  </si>
+  <si>
+    <t>Aira cupaniana</t>
+  </si>
+  <si>
+    <t>Lactuca serriola</t>
+  </si>
+  <si>
+    <t>Salvia coccinea</t>
+  </si>
+  <si>
+    <t>Soleirolia soleirolii</t>
+  </si>
+  <si>
+    <t>Rivina humilis</t>
+  </si>
+  <si>
+    <t>Argemone ochroleuca</t>
+  </si>
+  <si>
+    <t>Apium graveolens</t>
+  </si>
+  <si>
+    <t>Solanum triflorum</t>
+  </si>
+  <si>
+    <t>Fraxinus angustifolia</t>
+  </si>
+  <si>
+    <t>Trifolium repens</t>
+  </si>
+  <si>
+    <t>Bromus madritensis</t>
+  </si>
+  <si>
+    <t>Symphyotrichum subulatum</t>
+  </si>
+  <si>
+    <t>Silene gallica</t>
+  </si>
+  <si>
+    <t>Persicaria capitata</t>
+  </si>
+  <si>
+    <t>Phytolacca americana</t>
+  </si>
+  <si>
+    <t>Prunella vulgaris</t>
+  </si>
+  <si>
+    <t>Arrhenatherum elatius</t>
+  </si>
+  <si>
+    <t>Grewia asiatica</t>
+  </si>
+  <si>
+    <t>Crotalaria pallida</t>
+  </si>
+  <si>
+    <t>Hypericum perforatum</t>
+  </si>
+  <si>
+    <t>Macroptilium atropurpureum</t>
+  </si>
+  <si>
+    <t>Vigna unguiculata</t>
+  </si>
+  <si>
+    <t>Verbascum thapsus</t>
+  </si>
+  <si>
+    <t>Nicotiana tabacum</t>
+  </si>
+  <si>
+    <t>Megathyrsus maximus</t>
+  </si>
+  <si>
+    <t>Centaurium tenuiflorum</t>
+  </si>
+  <si>
+    <t>Quercus robur</t>
+  </si>
+  <si>
+    <t>Fumaria muralis</t>
+  </si>
+  <si>
+    <t>Macrotyloma axillare</t>
+  </si>
+  <si>
+    <t>Crassula sarmentosa</t>
+  </si>
+  <si>
+    <t>Petasites pyrenaicus</t>
+  </si>
+  <si>
+    <t>Cotoneaster coriaceus</t>
+  </si>
+  <si>
+    <t>Stylosanthes scabra</t>
+  </si>
+  <si>
+    <t>Lavandula dentata</t>
+  </si>
+  <si>
+    <t>Tristemma mauritianum</t>
+  </si>
+  <si>
+    <t>Catharanthus roseus</t>
+  </si>
+  <si>
+    <t>Cylindropuntia imbricata</t>
+  </si>
+  <si>
+    <t>Tradescantia zebrina</t>
+  </si>
+  <si>
+    <t>Tragopogon porrifolius</t>
+  </si>
+  <si>
+    <t>Romulea flava</t>
+  </si>
+  <si>
+    <t>Cyperus papyrus</t>
+  </si>
+  <si>
+    <t>Passiflora edulis</t>
+  </si>
+  <si>
+    <t>Crassula natans</t>
+  </si>
+  <si>
+    <t>Alternanthera sessilis</t>
+  </si>
+  <si>
+    <t>Enydra fluctuans</t>
+  </si>
+  <si>
+    <t>Enydra woollsii</t>
+  </si>
+  <si>
+    <t>matched name should actually be woollsii</t>
+  </si>
+  <si>
+    <t>Hesperantha falcata</t>
+  </si>
+  <si>
+    <t>Koelreuteria elegans</t>
+  </si>
+  <si>
+    <t>Lycianthes rantonnetii</t>
+  </si>
+  <si>
+    <t>Azadirachta indica</t>
+  </si>
+  <si>
+    <t>Laurus nobilis</t>
+  </si>
+  <si>
+    <t>Fumaria capreolata</t>
+  </si>
+  <si>
+    <t>Avena barbata</t>
+  </si>
+  <si>
+    <t>Hordeum distichon</t>
+  </si>
+  <si>
+    <t>Beta vulgaris</t>
+  </si>
+  <si>
+    <t>Erodium cicutarium</t>
+  </si>
+  <si>
+    <t>Aesculus hippocastanum</t>
+  </si>
+  <si>
+    <t>Crotalaria laburnifolia</t>
+  </si>
+  <si>
+    <t>Stylosanthes viscosa</t>
+  </si>
+  <si>
+    <t>Capsicum annuum</t>
+  </si>
+  <si>
+    <t>Limonium companyonis</t>
+  </si>
+  <si>
+    <t>Crassula tetragona</t>
+  </si>
+  <si>
+    <t>Epilobium ciliatum</t>
+  </si>
+  <si>
+    <t>Allium cepa</t>
+  </si>
+  <si>
+    <t>Leucojum aestivum</t>
+  </si>
+  <si>
+    <t>Thinopyrum elongatum</t>
+  </si>
+  <si>
+    <t>Pastinaca sativa</t>
+  </si>
+  <si>
+    <t>Phytolacca octandra</t>
+  </si>
+  <si>
+    <t>Cucurbita maxima</t>
+  </si>
+  <si>
+    <t>Syzygium cumini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-native slipped in </t>
+  </si>
+  <si>
+    <t>Pontederia crassipes</t>
+  </si>
+  <si>
+    <t>Kniphofia uvaria</t>
+  </si>
+  <si>
+    <t>Clitoria ternatea</t>
+  </si>
+  <si>
+    <t>Prunus persica</t>
+  </si>
+  <si>
+    <t>Solanum lycopersicum</t>
+  </si>
+  <si>
+    <t>Paspalum notatum</t>
+  </si>
+  <si>
+    <t>Cucumis myriocarpus</t>
+  </si>
+  <si>
+    <t>Mesosphaerum suaveolens</t>
+  </si>
+  <si>
+    <t>Oxalis hirta</t>
+  </si>
+  <si>
+    <t>Alternanthera brasiliana</t>
+  </si>
+  <si>
+    <t>Gladiolus dalenii</t>
+  </si>
+  <si>
+    <t>Kickxia spuria</t>
+  </si>
+  <si>
+    <t>Tillandsia usneoides</t>
+  </si>
+  <si>
+    <t>Suaeda baccifera</t>
+  </si>
+  <si>
+    <t>Cerastium glomeratum</t>
+  </si>
+  <si>
+    <t>Limonium sinuatum</t>
+  </si>
+  <si>
+    <t>Solanum sisymbriifolium</t>
+  </si>
+  <si>
+    <t>Euphorbia cyathophora</t>
+  </si>
+  <si>
+    <t>Juncus acutus</t>
+  </si>
+  <si>
+    <t>Acer negundo</t>
+  </si>
+  <si>
+    <t>Lolium perenne</t>
+  </si>
+  <si>
+    <t>Plumbago auriculata</t>
+  </si>
+  <si>
+    <t>Digitaria didactyla</t>
+  </si>
+  <si>
+    <t>Sonchus oleraceus</t>
+  </si>
+  <si>
+    <t>Brassica oleracea</t>
+  </si>
+  <si>
+    <t>Aloe vera</t>
+  </si>
+  <si>
+    <t>Cotoneaster glaucophyllus</t>
+  </si>
+  <si>
+    <t>Tithonia diversifolia</t>
+  </si>
+  <si>
+    <t>Baccharis halimifolia</t>
+  </si>
+  <si>
+    <t>Suaeda aegyptiaca</t>
+  </si>
+  <si>
+    <t>Mimosa pudica</t>
+  </si>
+  <si>
+    <t>Lepidium africanum</t>
+  </si>
+  <si>
+    <t>Crassula muscosa</t>
+  </si>
+  <si>
+    <t>Trifolium arvense</t>
+  </si>
+  <si>
+    <t>Trifolium angustifolium</t>
+  </si>
+  <si>
+    <t>Crassula ericoides</t>
+  </si>
+  <si>
+    <t>Lonicera japonica</t>
+  </si>
+  <si>
+    <t>Trifolium campestre</t>
+  </si>
+  <si>
+    <t>Medicago sativa</t>
+  </si>
+  <si>
+    <t>Solanum elaeagnifolium</t>
+  </si>
+  <si>
+    <t>Brassica rapa</t>
+  </si>
+  <si>
+    <t>Juncus effusus</t>
+  </si>
+  <si>
+    <t>Ehrharta erecta</t>
+  </si>
+  <si>
+    <t>Crassula multicava</t>
+  </si>
+  <si>
+    <t>Lapsana communis</t>
+  </si>
+  <si>
+    <t>Rostraria pumila</t>
+  </si>
+  <si>
+    <t>Gypsophila tubulosa</t>
+  </si>
+  <si>
+    <t>Leontodon saxatilis</t>
+  </si>
+  <si>
+    <t>Cynara cardunculus</t>
+  </si>
+  <si>
+    <t>Chamaecrista rotundifolia</t>
+  </si>
+  <si>
+    <t>Solanum radicans</t>
+  </si>
+  <si>
+    <t>Erica baccans</t>
+  </si>
+  <si>
+    <t>Oxalis corniculata</t>
+  </si>
+  <si>
+    <t>Asystasia gangetica</t>
+  </si>
+  <si>
+    <t>Garcinia xanthochymus</t>
+  </si>
+  <si>
+    <t>Gomphocarpus fruticosus</t>
+  </si>
+  <si>
+    <t>Zingiber zerumbet</t>
+  </si>
+  <si>
+    <t>Leucanthemum vulgare</t>
+  </si>
+  <si>
+    <t>Crotalaria lanceolata</t>
+  </si>
+  <si>
+    <t>Setaria sphacelata</t>
+  </si>
+  <si>
+    <t>Freesia laxa</t>
+  </si>
+  <si>
+    <t>Indigofera circinella</t>
+  </si>
+  <si>
+    <t>Tecoma stans</t>
+  </si>
+  <si>
+    <t>Verbena litoralis</t>
+  </si>
+  <si>
+    <t>Digitaria ciliaris</t>
+  </si>
+  <si>
+    <t>Hyparrhenia rufa</t>
+  </si>
+  <si>
+    <t>Cucumis anguria</t>
+  </si>
+  <si>
+    <t>Ricinus communis</t>
+  </si>
+  <si>
+    <t>Gnaphalium polycaulon</t>
+  </si>
+  <si>
+    <t>Cenchrus spinifex</t>
+  </si>
+  <si>
+    <t>Atriplex lentiformis</t>
+  </si>
+  <si>
+    <t>Drymaria cordata</t>
+  </si>
+  <si>
+    <t>Cenchrus setiger</t>
+  </si>
+  <si>
+    <t>Costus dubius</t>
+  </si>
+  <si>
+    <t>Phytolacca dioica</t>
+  </si>
+  <si>
+    <t>Centranthus ruber</t>
+  </si>
+  <si>
+    <t>Pyrostegia venusta</t>
+  </si>
+  <si>
+    <t>Hypoestes aristata</t>
+  </si>
+  <si>
+    <t>Syagrus romanzoffiana</t>
+  </si>
+  <si>
+    <t>Matthiola incana</t>
+  </si>
+  <si>
+    <t>Hedychium gardnerianum</t>
+  </si>
+  <si>
+    <t>Sedum praealtum</t>
+  </si>
+  <si>
+    <t>Arundo donax</t>
+  </si>
+  <si>
+    <t>Grona triflora</t>
+  </si>
+  <si>
+    <t>Polygala paniculata</t>
+  </si>
+  <si>
+    <t>Asphodelus fistulosus</t>
+  </si>
+  <si>
+    <t>Romulea minutiflora</t>
+  </si>
+  <si>
+    <t>Petrorhagia dubia</t>
+  </si>
+  <si>
+    <t>Lamium amplexicaule</t>
+  </si>
+  <si>
+    <t>Acer palmatum</t>
+  </si>
+  <si>
+    <t>Lotononis bainesii</t>
+  </si>
+  <si>
+    <t>Hordeum marinum</t>
+  </si>
+  <si>
+    <t>Gastridium ventricosum</t>
+  </si>
+  <si>
+    <t>Myosotis sylvatica</t>
+  </si>
+  <si>
+    <t>Zinnia peruviana</t>
+  </si>
+  <si>
+    <t>Campsis radicans</t>
+  </si>
+  <si>
+    <t>Tanacetum vulgare</t>
+  </si>
+  <si>
+    <t>Tritonia gladiolaris</t>
+  </si>
+  <si>
+    <t>Lantana camara</t>
+  </si>
+  <si>
+    <t>Herbertia lahue</t>
+  </si>
+  <si>
+    <t>Polycarpon tetraphyllum</t>
+  </si>
+  <si>
+    <t>Dactylis glomerata</t>
+  </si>
+  <si>
+    <t>Bauhinia variegata</t>
+  </si>
+  <si>
+    <t>Juncus articulatus</t>
+  </si>
+  <si>
+    <t>Ixia polystachya</t>
+  </si>
+  <si>
+    <t>Cirsium vulgare</t>
+  </si>
+  <si>
+    <t>Crepis foetida</t>
+  </si>
+  <si>
+    <t>Aeonium arboreum</t>
+  </si>
+  <si>
+    <t>Tribolium obliterum</t>
+  </si>
+  <si>
+    <t>Erigeron canadensis</t>
+  </si>
+  <si>
+    <t>Kickxia elatine</t>
+  </si>
+  <si>
+    <t>Murdannia nudiflora</t>
+  </si>
+  <si>
+    <t>Escallonia rubra</t>
+  </si>
+  <si>
+    <t>Ranunculus flammula</t>
+  </si>
+  <si>
+    <t>Bunchosia glandulifera</t>
+  </si>
+  <si>
+    <t>Passiflora suberosa</t>
+  </si>
+  <si>
+    <t>Lotus corniculatus</t>
+  </si>
+  <si>
+    <t>Salvia verbenaca</t>
+  </si>
+  <si>
+    <t>Mirabilis jalapa</t>
+  </si>
+  <si>
+    <t>Vinca major</t>
+  </si>
+  <si>
+    <t>Vachellia nilotica</t>
+  </si>
+  <si>
+    <t>Senna siamea</t>
+  </si>
+  <si>
+    <t>Actinidia chinensis</t>
+  </si>
+  <si>
+    <t>Ulex europaeus</t>
+  </si>
+  <si>
+    <t>Mangifera indica</t>
+  </si>
+  <si>
+    <t>Ranunculus sceleratus</t>
+  </si>
+  <si>
+    <t>Oxalis pes-caprae</t>
+  </si>
+  <si>
+    <t>Heliophila pusilla</t>
+  </si>
+  <si>
+    <t>Hedera helix</t>
+  </si>
+  <si>
+    <t>Trifolium resupinatum</t>
+  </si>
+  <si>
+    <t>Ambrosia artemisiifolia</t>
+  </si>
+  <si>
+    <t>Vachellia farnesiana</t>
+  </si>
+  <si>
+    <t>Epiphyllum phyllanthus</t>
+  </si>
+  <si>
+    <t>Viburnum odoratissimum</t>
+  </si>
+  <si>
+    <t>Mesosphaerum pectinatum</t>
+  </si>
+  <si>
+    <t>Watsonia borbonica</t>
+  </si>
+  <si>
+    <t>Crepis vesicaria</t>
+  </si>
+  <si>
+    <t>Bromus tectorum</t>
+  </si>
+  <si>
+    <t>Avellinia festucoides</t>
+  </si>
+  <si>
+    <t>Psilurus incurvus</t>
+  </si>
+  <si>
+    <t>Spiraea cantoniensis</t>
+  </si>
+  <si>
+    <t>Trifolium fragiferum</t>
+  </si>
+  <si>
+    <t>Rumex pulcher</t>
+  </si>
+  <si>
+    <t>Pentameris airoides</t>
+  </si>
+  <si>
+    <t>Populus nigra</t>
+  </si>
+  <si>
+    <t>Cascabela thevetia</t>
+  </si>
+  <si>
+    <t>Claytonia perfoliata</t>
+  </si>
+  <si>
+    <t>Cirsium arvense</t>
+  </si>
+  <si>
+    <t>Aloe maculata</t>
+  </si>
+  <si>
+    <t>Salix cinerea</t>
+  </si>
+  <si>
+    <t>Cabomba caroliniana</t>
+  </si>
+  <si>
+    <t>Solanum pseudocapsicum</t>
+  </si>
+  <si>
+    <t>Buddleja globosa</t>
+  </si>
+  <si>
+    <t>non-native, not marked as cultivated</t>
+  </si>
+  <si>
+    <t>Stigmaphyllon ciliatum</t>
+  </si>
+  <si>
+    <t>Carex distans</t>
+  </si>
+  <si>
+    <t>Rosa bracteata</t>
+  </si>
+  <si>
+    <t>Prunus armeniaca</t>
+  </si>
+  <si>
+    <t>Pinus palustris</t>
+  </si>
+  <si>
+    <t>Melaleuca transversa</t>
+  </si>
+  <si>
+    <t>matched name should actually be Beaufortia decussata</t>
+  </si>
+  <si>
+    <t>Lamium galeobdolon</t>
+  </si>
+  <si>
+    <t>Lamium argentatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baumea articulata </t>
+  </si>
+  <si>
+    <t>APC exclusion is their error</t>
+  </si>
+  <si>
+    <t>add to APC matrix</t>
+  </si>
+  <si>
+    <t>Osteospermum moniliferum</t>
+  </si>
+  <si>
+    <t>Chrysanthemoides monilifera</t>
+  </si>
+  <si>
+    <t>Sansevieria trifasciata</t>
+  </si>
+  <si>
+    <t>Dracaena trifasciata</t>
+  </si>
+  <si>
+    <t>Plectranthus caninus</t>
+  </si>
+  <si>
+    <t>Pteridium revolutum</t>
+  </si>
+  <si>
+    <t>Pteridium aquilinum</t>
+  </si>
+  <si>
+    <t>matched from revolutum, probably esculentum, which is already elsewhere</t>
+  </si>
+  <si>
+    <t>Meniocus linifolius</t>
+  </si>
+  <si>
+    <t>Alyssum linifolium</t>
+  </si>
+  <si>
+    <t>Coleus amboinicus</t>
+  </si>
+  <si>
+    <t>Plectranthus amboinicus</t>
+  </si>
+  <si>
+    <t>Periballia minuta</t>
+  </si>
+  <si>
+    <t>Molineriella minuta</t>
+  </si>
+  <si>
+    <t>Piptatherum miliaceum</t>
+  </si>
+  <si>
+    <t>enecio albogilvus</t>
+  </si>
+  <si>
+    <t>fix name</t>
+  </si>
+  <si>
+    <t>typo from me, omitted S</t>
+  </si>
+  <si>
+    <t>Stipa caudata</t>
+  </si>
+  <si>
+    <t>Amelichloa caudata</t>
   </si>
 </sst>
 </file>
@@ -3138,18 +4047,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD91070-41F0-4C24-BA04-4BAAA333C211}">
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
+      <selection activeCell="A735" sqref="A735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12180,6 +13089,4868 @@
         <v>813</v>
       </c>
     </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>917</v>
+      </c>
+      <c r="B532" t="s">
+        <v>917</v>
+      </c>
+      <c r="C532" t="s">
+        <v>750</v>
+      </c>
+      <c r="D532" t="s">
+        <v>617</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>918</v>
+      </c>
+      <c r="B533" t="s">
+        <v>918</v>
+      </c>
+      <c r="C533" t="s">
+        <v>750</v>
+      </c>
+      <c r="D533" t="s">
+        <v>617</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>919</v>
+      </c>
+      <c r="B534" t="s">
+        <v>919</v>
+      </c>
+      <c r="C534" t="s">
+        <v>750</v>
+      </c>
+      <c r="D534" t="s">
+        <v>617</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>275</v>
+      </c>
+      <c r="B535" t="s">
+        <v>275</v>
+      </c>
+      <c r="C535" t="s">
+        <v>750</v>
+      </c>
+      <c r="D535" t="s">
+        <v>617</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>920</v>
+      </c>
+      <c r="B536" t="s">
+        <v>920</v>
+      </c>
+      <c r="C536" t="s">
+        <v>750</v>
+      </c>
+      <c r="D536" t="s">
+        <v>617</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>921</v>
+      </c>
+      <c r="B537" t="s">
+        <v>921</v>
+      </c>
+      <c r="C537" t="s">
+        <v>750</v>
+      </c>
+      <c r="D537" t="s">
+        <v>617</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>922</v>
+      </c>
+      <c r="B538" t="s">
+        <v>922</v>
+      </c>
+      <c r="C538" t="s">
+        <v>750</v>
+      </c>
+      <c r="D538" t="s">
+        <v>617</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>923</v>
+      </c>
+      <c r="B539" t="s">
+        <v>923</v>
+      </c>
+      <c r="C539" t="s">
+        <v>672</v>
+      </c>
+      <c r="D539" t="s">
+        <v>617</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>924</v>
+      </c>
+      <c r="B540" t="s">
+        <v>924</v>
+      </c>
+      <c r="C540" t="s">
+        <v>750</v>
+      </c>
+      <c r="D540" t="s">
+        <v>617</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>925</v>
+      </c>
+      <c r="B541" t="s">
+        <v>925</v>
+      </c>
+      <c r="C541" t="s">
+        <v>672</v>
+      </c>
+      <c r="D541" t="s">
+        <v>617</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>926</v>
+      </c>
+      <c r="B542" t="s">
+        <v>926</v>
+      </c>
+      <c r="C542" t="s">
+        <v>750</v>
+      </c>
+      <c r="D542" t="s">
+        <v>617</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>927</v>
+      </c>
+      <c r="B543" t="s">
+        <v>927</v>
+      </c>
+      <c r="C543" t="s">
+        <v>672</v>
+      </c>
+      <c r="D543" t="s">
+        <v>617</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>928</v>
+      </c>
+      <c r="B544" t="s">
+        <v>928</v>
+      </c>
+      <c r="C544" t="s">
+        <v>750</v>
+      </c>
+      <c r="D544" t="s">
+        <v>617</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>929</v>
+      </c>
+      <c r="B545" t="s">
+        <v>929</v>
+      </c>
+      <c r="C545" t="s">
+        <v>750</v>
+      </c>
+      <c r="D545" t="s">
+        <v>617</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>930</v>
+      </c>
+      <c r="B546" t="s">
+        <v>930</v>
+      </c>
+      <c r="C546" t="s">
+        <v>750</v>
+      </c>
+      <c r="D546" t="s">
+        <v>617</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>931</v>
+      </c>
+      <c r="B547" t="s">
+        <v>931</v>
+      </c>
+      <c r="C547" t="s">
+        <v>750</v>
+      </c>
+      <c r="D547" t="s">
+        <v>617</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>932</v>
+      </c>
+      <c r="B548" t="s">
+        <v>932</v>
+      </c>
+      <c r="C548" t="s">
+        <v>750</v>
+      </c>
+      <c r="D548" t="s">
+        <v>617</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>933</v>
+      </c>
+      <c r="B549" t="s">
+        <v>933</v>
+      </c>
+      <c r="C549" t="s">
+        <v>672</v>
+      </c>
+      <c r="D549" t="s">
+        <v>617</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>934</v>
+      </c>
+      <c r="B550" t="s">
+        <v>934</v>
+      </c>
+      <c r="C550" t="s">
+        <v>750</v>
+      </c>
+      <c r="D550" t="s">
+        <v>617</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>935</v>
+      </c>
+      <c r="B551" t="s">
+        <v>935</v>
+      </c>
+      <c r="C551" t="s">
+        <v>672</v>
+      </c>
+      <c r="D551" t="s">
+        <v>617</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>936</v>
+      </c>
+      <c r="B552" t="s">
+        <v>936</v>
+      </c>
+      <c r="C552" t="s">
+        <v>750</v>
+      </c>
+      <c r="D552" t="s">
+        <v>617</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>937</v>
+      </c>
+      <c r="B553" t="s">
+        <v>937</v>
+      </c>
+      <c r="C553" t="s">
+        <v>672</v>
+      </c>
+      <c r="D553" t="s">
+        <v>617</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>938</v>
+      </c>
+      <c r="B554" t="s">
+        <v>938</v>
+      </c>
+      <c r="C554" t="s">
+        <v>750</v>
+      </c>
+      <c r="D554" t="s">
+        <v>617</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>939</v>
+      </c>
+      <c r="B555" t="s">
+        <v>939</v>
+      </c>
+      <c r="C555" t="s">
+        <v>672</v>
+      </c>
+      <c r="D555" t="s">
+        <v>617</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>942</v>
+      </c>
+      <c r="B556" t="s">
+        <v>942</v>
+      </c>
+      <c r="C556" t="s">
+        <v>940</v>
+      </c>
+      <c r="D556" t="s">
+        <v>941</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>943</v>
+      </c>
+      <c r="B557" t="s">
+        <v>943</v>
+      </c>
+      <c r="C557" t="s">
+        <v>690</v>
+      </c>
+      <c r="D557" t="s">
+        <v>617</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>944</v>
+      </c>
+      <c r="B558" t="s">
+        <v>944</v>
+      </c>
+      <c r="C558" t="s">
+        <v>750</v>
+      </c>
+      <c r="D558" t="s">
+        <v>617</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>945</v>
+      </c>
+      <c r="B559" t="s">
+        <v>945</v>
+      </c>
+      <c r="C559" t="s">
+        <v>750</v>
+      </c>
+      <c r="D559" t="s">
+        <v>617</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>946</v>
+      </c>
+      <c r="B560" t="s">
+        <v>946</v>
+      </c>
+      <c r="C560" t="s">
+        <v>690</v>
+      </c>
+      <c r="D560" t="s">
+        <v>617</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>947</v>
+      </c>
+      <c r="B561" t="s">
+        <v>947</v>
+      </c>
+      <c r="C561" t="s">
+        <v>690</v>
+      </c>
+      <c r="D561" t="s">
+        <v>617</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>948</v>
+      </c>
+      <c r="B562" t="s">
+        <v>948</v>
+      </c>
+      <c r="C562" t="s">
+        <v>690</v>
+      </c>
+      <c r="D562" t="s">
+        <v>617</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>949</v>
+      </c>
+      <c r="B563" t="s">
+        <v>949</v>
+      </c>
+      <c r="C563" t="s">
+        <v>750</v>
+      </c>
+      <c r="D563" t="s">
+        <v>617</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>950</v>
+      </c>
+      <c r="B564" t="s">
+        <v>950</v>
+      </c>
+      <c r="C564" t="s">
+        <v>672</v>
+      </c>
+      <c r="D564" t="s">
+        <v>617</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>951</v>
+      </c>
+      <c r="B565" t="s">
+        <v>951</v>
+      </c>
+      <c r="C565" t="s">
+        <v>750</v>
+      </c>
+      <c r="D565" t="s">
+        <v>617</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>952</v>
+      </c>
+      <c r="B566" t="s">
+        <v>952</v>
+      </c>
+      <c r="C566" t="s">
+        <v>672</v>
+      </c>
+      <c r="D566" t="s">
+        <v>617</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>953</v>
+      </c>
+      <c r="B567" t="s">
+        <v>953</v>
+      </c>
+      <c r="C567" t="s">
+        <v>750</v>
+      </c>
+      <c r="D567" t="s">
+        <v>617</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>954</v>
+      </c>
+      <c r="B568" t="s">
+        <v>954</v>
+      </c>
+      <c r="C568" t="s">
+        <v>750</v>
+      </c>
+      <c r="D568" t="s">
+        <v>617</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>955</v>
+      </c>
+      <c r="B569" t="s">
+        <v>955</v>
+      </c>
+      <c r="C569" t="s">
+        <v>750</v>
+      </c>
+      <c r="D569" t="s">
+        <v>617</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>956</v>
+      </c>
+      <c r="B570" t="s">
+        <v>956</v>
+      </c>
+      <c r="C570" t="s">
+        <v>672</v>
+      </c>
+      <c r="D570" t="s">
+        <v>617</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>957</v>
+      </c>
+      <c r="B571" t="s">
+        <v>957</v>
+      </c>
+      <c r="C571" t="s">
+        <v>750</v>
+      </c>
+      <c r="D571" t="s">
+        <v>617</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>958</v>
+      </c>
+      <c r="B572" t="s">
+        <v>958</v>
+      </c>
+      <c r="C572" t="s">
+        <v>750</v>
+      </c>
+      <c r="D572" t="s">
+        <v>617</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>959</v>
+      </c>
+      <c r="B573" t="s">
+        <v>959</v>
+      </c>
+      <c r="C573" t="s">
+        <v>750</v>
+      </c>
+      <c r="D573" t="s">
+        <v>617</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>960</v>
+      </c>
+      <c r="B574" t="s">
+        <v>960</v>
+      </c>
+      <c r="C574" t="s">
+        <v>750</v>
+      </c>
+      <c r="D574" t="s">
+        <v>617</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>961</v>
+      </c>
+      <c r="B575" t="s">
+        <v>961</v>
+      </c>
+      <c r="C575" t="s">
+        <v>750</v>
+      </c>
+      <c r="D575" t="s">
+        <v>617</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>962</v>
+      </c>
+      <c r="B576" t="s">
+        <v>962</v>
+      </c>
+      <c r="C576" t="s">
+        <v>672</v>
+      </c>
+      <c r="D576" t="s">
+        <v>617</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>963</v>
+      </c>
+      <c r="B577" t="s">
+        <v>963</v>
+      </c>
+      <c r="C577" t="s">
+        <v>750</v>
+      </c>
+      <c r="D577" t="s">
+        <v>617</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>964</v>
+      </c>
+      <c r="B578" t="s">
+        <v>964</v>
+      </c>
+      <c r="C578" t="s">
+        <v>672</v>
+      </c>
+      <c r="D578" t="s">
+        <v>617</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>965</v>
+      </c>
+      <c r="B579" t="s">
+        <v>965</v>
+      </c>
+      <c r="C579" t="s">
+        <v>750</v>
+      </c>
+      <c r="D579" t="s">
+        <v>617</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>966</v>
+      </c>
+      <c r="B580" t="s">
+        <v>966</v>
+      </c>
+      <c r="C580" t="s">
+        <v>690</v>
+      </c>
+      <c r="D580" t="s">
+        <v>617</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>967</v>
+      </c>
+      <c r="B581" t="s">
+        <v>967</v>
+      </c>
+      <c r="C581" t="s">
+        <v>750</v>
+      </c>
+      <c r="D581" t="s">
+        <v>617</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>968</v>
+      </c>
+      <c r="B582" t="s">
+        <v>968</v>
+      </c>
+      <c r="C582" t="s">
+        <v>750</v>
+      </c>
+      <c r="D582" t="s">
+        <v>617</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>969</v>
+      </c>
+      <c r="B583" t="s">
+        <v>969</v>
+      </c>
+      <c r="C583" t="s">
+        <v>672</v>
+      </c>
+      <c r="D583" t="s">
+        <v>617</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>970</v>
+      </c>
+      <c r="B584" t="s">
+        <v>970</v>
+      </c>
+      <c r="C584" t="s">
+        <v>750</v>
+      </c>
+      <c r="D584" t="s">
+        <v>617</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>971</v>
+      </c>
+      <c r="B585" t="s">
+        <v>971</v>
+      </c>
+      <c r="C585" t="s">
+        <v>750</v>
+      </c>
+      <c r="D585" t="s">
+        <v>617</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>972</v>
+      </c>
+      <c r="B586" t="s">
+        <v>972</v>
+      </c>
+      <c r="C586" t="s">
+        <v>750</v>
+      </c>
+      <c r="D586" t="s">
+        <v>617</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>973</v>
+      </c>
+      <c r="B587" t="s">
+        <v>973</v>
+      </c>
+      <c r="C587" t="s">
+        <v>750</v>
+      </c>
+      <c r="D587" t="s">
+        <v>617</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>974</v>
+      </c>
+      <c r="B588" t="s">
+        <v>974</v>
+      </c>
+      <c r="C588" t="s">
+        <v>750</v>
+      </c>
+      <c r="D588" t="s">
+        <v>617</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>975</v>
+      </c>
+      <c r="B589" t="s">
+        <v>975</v>
+      </c>
+      <c r="C589" t="s">
+        <v>690</v>
+      </c>
+      <c r="D589" t="s">
+        <v>617</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>976</v>
+      </c>
+      <c r="B590" t="s">
+        <v>976</v>
+      </c>
+      <c r="C590" t="s">
+        <v>750</v>
+      </c>
+      <c r="D590" t="s">
+        <v>617</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>977</v>
+      </c>
+      <c r="B591" t="s">
+        <v>977</v>
+      </c>
+      <c r="C591" t="s">
+        <v>750</v>
+      </c>
+      <c r="D591" t="s">
+        <v>617</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>978</v>
+      </c>
+      <c r="B592" t="s">
+        <v>978</v>
+      </c>
+      <c r="C592" t="s">
+        <v>750</v>
+      </c>
+      <c r="D592" t="s">
+        <v>617</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>979</v>
+      </c>
+      <c r="B593" t="s">
+        <v>979</v>
+      </c>
+      <c r="C593" t="s">
+        <v>672</v>
+      </c>
+      <c r="D593" t="s">
+        <v>617</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>980</v>
+      </c>
+      <c r="B594" t="s">
+        <v>980</v>
+      </c>
+      <c r="C594" t="s">
+        <v>750</v>
+      </c>
+      <c r="D594" t="s">
+        <v>617</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>981</v>
+      </c>
+      <c r="B595" t="s">
+        <v>981</v>
+      </c>
+      <c r="C595" t="s">
+        <v>750</v>
+      </c>
+      <c r="D595" t="s">
+        <v>617</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>982</v>
+      </c>
+      <c r="B596" t="s">
+        <v>982</v>
+      </c>
+      <c r="C596" t="s">
+        <v>690</v>
+      </c>
+      <c r="D596" t="s">
+        <v>617</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>983</v>
+      </c>
+      <c r="B597" t="s">
+        <v>983</v>
+      </c>
+      <c r="C597" t="s">
+        <v>690</v>
+      </c>
+      <c r="D597" t="s">
+        <v>617</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>984</v>
+      </c>
+      <c r="B598" t="s">
+        <v>984</v>
+      </c>
+      <c r="C598" t="s">
+        <v>750</v>
+      </c>
+      <c r="D598" t="s">
+        <v>617</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>985</v>
+      </c>
+      <c r="B599" t="s">
+        <v>985</v>
+      </c>
+      <c r="C599" t="s">
+        <v>672</v>
+      </c>
+      <c r="D599" t="s">
+        <v>617</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>986</v>
+      </c>
+      <c r="B600" t="s">
+        <v>986</v>
+      </c>
+      <c r="C600" t="s">
+        <v>750</v>
+      </c>
+      <c r="D600" t="s">
+        <v>617</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>987</v>
+      </c>
+      <c r="B601" t="s">
+        <v>987</v>
+      </c>
+      <c r="C601" t="s">
+        <v>750</v>
+      </c>
+      <c r="D601" t="s">
+        <v>617</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>988</v>
+      </c>
+      <c r="B602" t="s">
+        <v>988</v>
+      </c>
+      <c r="C602" t="s">
+        <v>750</v>
+      </c>
+      <c r="D602" t="s">
+        <v>617</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>989</v>
+      </c>
+      <c r="B603" t="s">
+        <v>989</v>
+      </c>
+      <c r="C603" t="s">
+        <v>750</v>
+      </c>
+      <c r="D603" t="s">
+        <v>617</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>990</v>
+      </c>
+      <c r="B604" t="s">
+        <v>990</v>
+      </c>
+      <c r="C604" t="s">
+        <v>750</v>
+      </c>
+      <c r="D604" t="s">
+        <v>617</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>991</v>
+      </c>
+      <c r="B605" t="s">
+        <v>991</v>
+      </c>
+      <c r="C605" t="s">
+        <v>750</v>
+      </c>
+      <c r="D605" t="s">
+        <v>617</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>992</v>
+      </c>
+      <c r="B606" t="s">
+        <v>992</v>
+      </c>
+      <c r="C606" t="s">
+        <v>750</v>
+      </c>
+      <c r="D606" t="s">
+        <v>617</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>993</v>
+      </c>
+      <c r="B607" t="s">
+        <v>993</v>
+      </c>
+      <c r="C607" t="s">
+        <v>690</v>
+      </c>
+      <c r="D607" t="s">
+        <v>617</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>994</v>
+      </c>
+      <c r="B608" t="s">
+        <v>994</v>
+      </c>
+      <c r="C608" t="s">
+        <v>672</v>
+      </c>
+      <c r="D608" t="s">
+        <v>617</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>995</v>
+      </c>
+      <c r="B609" t="s">
+        <v>995</v>
+      </c>
+      <c r="C609" t="s">
+        <v>672</v>
+      </c>
+      <c r="D609" t="s">
+        <v>617</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>996</v>
+      </c>
+      <c r="B610" t="s">
+        <v>996</v>
+      </c>
+      <c r="C610" t="s">
+        <v>750</v>
+      </c>
+      <c r="D610" t="s">
+        <v>617</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>997</v>
+      </c>
+      <c r="B611" t="s">
+        <v>997</v>
+      </c>
+      <c r="C611" t="s">
+        <v>750</v>
+      </c>
+      <c r="D611" t="s">
+        <v>617</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>998</v>
+      </c>
+      <c r="B612" t="s">
+        <v>998</v>
+      </c>
+      <c r="C612" t="s">
+        <v>750</v>
+      </c>
+      <c r="D612" t="s">
+        <v>617</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>999</v>
+      </c>
+      <c r="B613" t="s">
+        <v>999</v>
+      </c>
+      <c r="C613" t="s">
+        <v>750</v>
+      </c>
+      <c r="D613" t="s">
+        <v>617</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C614" t="s">
+        <v>750</v>
+      </c>
+      <c r="D614" t="s">
+        <v>617</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C615" t="s">
+        <v>750</v>
+      </c>
+      <c r="D615" t="s">
+        <v>617</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C616" t="s">
+        <v>750</v>
+      </c>
+      <c r="D616" t="s">
+        <v>617</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C617" t="s">
+        <v>750</v>
+      </c>
+      <c r="D617" t="s">
+        <v>617</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C618" t="s">
+        <v>750</v>
+      </c>
+      <c r="D618" t="s">
+        <v>617</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C619" t="s">
+        <v>672</v>
+      </c>
+      <c r="D619" t="s">
+        <v>617</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D620" t="s">
+        <v>941</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C621" t="s">
+        <v>750</v>
+      </c>
+      <c r="D621" t="s">
+        <v>617</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C622" t="s">
+        <v>750</v>
+      </c>
+      <c r="D622" t="s">
+        <v>617</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C623" t="s">
+        <v>672</v>
+      </c>
+      <c r="D623" t="s">
+        <v>617</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C624" t="s">
+        <v>672</v>
+      </c>
+      <c r="D624" t="s">
+        <v>617</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C625" t="s">
+        <v>750</v>
+      </c>
+      <c r="D625" t="s">
+        <v>617</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C626" t="s">
+        <v>750</v>
+      </c>
+      <c r="D626" t="s">
+        <v>617</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C627" t="s">
+        <v>750</v>
+      </c>
+      <c r="D627" t="s">
+        <v>617</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C628" t="s">
+        <v>750</v>
+      </c>
+      <c r="D628" t="s">
+        <v>617</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C629" t="s">
+        <v>750</v>
+      </c>
+      <c r="D629" t="s">
+        <v>617</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C630" t="s">
+        <v>750</v>
+      </c>
+      <c r="D630" t="s">
+        <v>617</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C631" t="s">
+        <v>672</v>
+      </c>
+      <c r="D631" t="s">
+        <v>617</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C632" t="s">
+        <v>750</v>
+      </c>
+      <c r="D632" t="s">
+        <v>617</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C633" t="s">
+        <v>690</v>
+      </c>
+      <c r="D633" t="s">
+        <v>617</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C634" t="s">
+        <v>750</v>
+      </c>
+      <c r="D634" t="s">
+        <v>617</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C635" t="s">
+        <v>690</v>
+      </c>
+      <c r="D635" t="s">
+        <v>617</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C636" t="s">
+        <v>750</v>
+      </c>
+      <c r="D636" t="s">
+        <v>617</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C637" t="s">
+        <v>750</v>
+      </c>
+      <c r="D637" t="s">
+        <v>617</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C638" t="s">
+        <v>750</v>
+      </c>
+      <c r="D638" t="s">
+        <v>617</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C639" t="s">
+        <v>690</v>
+      </c>
+      <c r="D639" t="s">
+        <v>617</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C640" t="s">
+        <v>690</v>
+      </c>
+      <c r="D640" t="s">
+        <v>617</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C641" t="s">
+        <v>750</v>
+      </c>
+      <c r="D641" t="s">
+        <v>617</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C642" t="s">
+        <v>750</v>
+      </c>
+      <c r="D642" t="s">
+        <v>617</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C643" t="s">
+        <v>750</v>
+      </c>
+      <c r="D643" t="s">
+        <v>617</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D644" t="s">
+        <v>617</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C645" t="s">
+        <v>690</v>
+      </c>
+      <c r="D645" t="s">
+        <v>617</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C646" t="s">
+        <v>690</v>
+      </c>
+      <c r="D646" t="s">
+        <v>617</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C647" t="s">
+        <v>750</v>
+      </c>
+      <c r="D647" t="s">
+        <v>617</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C648" t="s">
+        <v>750</v>
+      </c>
+      <c r="D648" t="s">
+        <v>617</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C649" t="s">
+        <v>750</v>
+      </c>
+      <c r="D649" t="s">
+        <v>617</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C650" t="s">
+        <v>750</v>
+      </c>
+      <c r="D650" t="s">
+        <v>617</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C651" t="s">
+        <v>750</v>
+      </c>
+      <c r="D651" t="s">
+        <v>617</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D652" t="s">
+        <v>617</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D653" t="s">
+        <v>617</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C654" t="s">
+        <v>690</v>
+      </c>
+      <c r="D654" t="s">
+        <v>617</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C655" t="s">
+        <v>750</v>
+      </c>
+      <c r="D655" t="s">
+        <v>617</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C656" t="s">
+        <v>750</v>
+      </c>
+      <c r="D656" t="s">
+        <v>617</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C657" t="s">
+        <v>750</v>
+      </c>
+      <c r="D657" t="s">
+        <v>617</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D658" t="s">
+        <v>617</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C659" t="s">
+        <v>750</v>
+      </c>
+      <c r="D659" t="s">
+        <v>617</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C660" t="s">
+        <v>690</v>
+      </c>
+      <c r="D660" t="s">
+        <v>617</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C661" t="s">
+        <v>690</v>
+      </c>
+      <c r="D661" t="s">
+        <v>617</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C662" t="s">
+        <v>690</v>
+      </c>
+      <c r="D662" t="s">
+        <v>617</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C663" t="s">
+        <v>750</v>
+      </c>
+      <c r="D663" t="s">
+        <v>617</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C664" t="s">
+        <v>750</v>
+      </c>
+      <c r="D664" t="s">
+        <v>617</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C665" t="s">
+        <v>750</v>
+      </c>
+      <c r="D665" t="s">
+        <v>617</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C666" t="s">
+        <v>690</v>
+      </c>
+      <c r="D666" t="s">
+        <v>617</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C667" t="s">
+        <v>714</v>
+      </c>
+      <c r="D667" t="s">
+        <v>617</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C668" t="s">
+        <v>750</v>
+      </c>
+      <c r="D668" t="s">
+        <v>617</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C669" t="s">
+        <v>750</v>
+      </c>
+      <c r="D669" t="s">
+        <v>617</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C670" t="s">
+        <v>750</v>
+      </c>
+      <c r="D670" t="s">
+        <v>617</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C671" t="s">
+        <v>750</v>
+      </c>
+      <c r="D671" t="s">
+        <v>617</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C672" t="s">
+        <v>690</v>
+      </c>
+      <c r="D672" t="s">
+        <v>617</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C673" t="s">
+        <v>690</v>
+      </c>
+      <c r="D673" t="s">
+        <v>617</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D674" t="s">
+        <v>617</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C675" t="s">
+        <v>750</v>
+      </c>
+      <c r="D675" t="s">
+        <v>617</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C676" t="s">
+        <v>750</v>
+      </c>
+      <c r="D676" t="s">
+        <v>617</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C677" t="s">
+        <v>750</v>
+      </c>
+      <c r="D677" t="s">
+        <v>617</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C678" t="s">
+        <v>750</v>
+      </c>
+      <c r="D678" t="s">
+        <v>617</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C679" t="s">
+        <v>750</v>
+      </c>
+      <c r="D679" t="s">
+        <v>617</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C680" t="s">
+        <v>750</v>
+      </c>
+      <c r="D680" t="s">
+        <v>617</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C681" t="s">
+        <v>750</v>
+      </c>
+      <c r="D681" t="s">
+        <v>617</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C682" t="s">
+        <v>750</v>
+      </c>
+      <c r="D682" t="s">
+        <v>617</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C683" t="s">
+        <v>750</v>
+      </c>
+      <c r="D683" t="s">
+        <v>617</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C684" t="s">
+        <v>690</v>
+      </c>
+      <c r="D684" t="s">
+        <v>617</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C685" t="s">
+        <v>750</v>
+      </c>
+      <c r="D685" t="s">
+        <v>617</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C686" t="s">
+        <v>750</v>
+      </c>
+      <c r="D686" t="s">
+        <v>617</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C687" t="s">
+        <v>750</v>
+      </c>
+      <c r="D687" t="s">
+        <v>617</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C688" t="s">
+        <v>750</v>
+      </c>
+      <c r="D688" t="s">
+        <v>617</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C689" t="s">
+        <v>750</v>
+      </c>
+      <c r="D689" t="s">
+        <v>617</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D690" t="s">
+        <v>617</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D691" t="s">
+        <v>617</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C692" t="s">
+        <v>750</v>
+      </c>
+      <c r="D692" t="s">
+        <v>617</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C693" t="s">
+        <v>750</v>
+      </c>
+      <c r="D693" t="s">
+        <v>617</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C694" t="s">
+        <v>750</v>
+      </c>
+      <c r="D694" t="s">
+        <v>617</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D695" t="s">
+        <v>617</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C696" t="s">
+        <v>750</v>
+      </c>
+      <c r="D696" t="s">
+        <v>617</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C697" t="s">
+        <v>750</v>
+      </c>
+      <c r="D697" t="s">
+        <v>617</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C698" t="s">
+        <v>750</v>
+      </c>
+      <c r="D698" t="s">
+        <v>617</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D699" t="s">
+        <v>617</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C700" t="s">
+        <v>750</v>
+      </c>
+      <c r="D700" t="s">
+        <v>617</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D701" t="s">
+        <v>617</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C702" t="s">
+        <v>750</v>
+      </c>
+      <c r="D702" t="s">
+        <v>617</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C703" t="s">
+        <v>750</v>
+      </c>
+      <c r="D703" t="s">
+        <v>617</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C704" t="s">
+        <v>750</v>
+      </c>
+      <c r="D704" t="s">
+        <v>617</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C705" t="s">
+        <v>750</v>
+      </c>
+      <c r="D705" t="s">
+        <v>617</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C706" t="s">
+        <v>750</v>
+      </c>
+      <c r="D706" t="s">
+        <v>617</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C707" t="s">
+        <v>690</v>
+      </c>
+      <c r="D707" t="s">
+        <v>617</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C708" t="s">
+        <v>750</v>
+      </c>
+      <c r="D708" t="s">
+        <v>617</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C709" t="s">
+        <v>750</v>
+      </c>
+      <c r="D709" t="s">
+        <v>617</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C710" t="s">
+        <v>750</v>
+      </c>
+      <c r="D710" t="s">
+        <v>617</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C711" t="s">
+        <v>750</v>
+      </c>
+      <c r="D711" t="s">
+        <v>617</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C712" t="s">
+        <v>750</v>
+      </c>
+      <c r="D712" t="s">
+        <v>617</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C713" t="s">
+        <v>672</v>
+      </c>
+      <c r="D713" t="s">
+        <v>617</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C714" t="s">
+        <v>672</v>
+      </c>
+      <c r="D714" t="s">
+        <v>617</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C715" t="s">
+        <v>672</v>
+      </c>
+      <c r="D715" t="s">
+        <v>617</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C716" t="s">
+        <v>750</v>
+      </c>
+      <c r="D716" t="s">
+        <v>617</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C717" t="s">
+        <v>690</v>
+      </c>
+      <c r="D717" t="s">
+        <v>617</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D718" t="s">
+        <v>617</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C719" t="s">
+        <v>690</v>
+      </c>
+      <c r="D719" t="s">
+        <v>617</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C720" t="s">
+        <v>750</v>
+      </c>
+      <c r="D720" t="s">
+        <v>617</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C721" t="s">
+        <v>690</v>
+      </c>
+      <c r="D721" t="s">
+        <v>617</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C722" t="s">
+        <v>690</v>
+      </c>
+      <c r="D722" t="s">
+        <v>617</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C723" t="s">
+        <v>690</v>
+      </c>
+      <c r="D723" t="s">
+        <v>617</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C724" t="s">
+        <v>690</v>
+      </c>
+      <c r="D724" t="s">
+        <v>617</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C725" t="s">
+        <v>690</v>
+      </c>
+      <c r="D725" t="s">
+        <v>617</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C726" t="s">
+        <v>750</v>
+      </c>
+      <c r="D726" t="s">
+        <v>617</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C727" t="s">
+        <v>750</v>
+      </c>
+      <c r="D727" t="s">
+        <v>617</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C728" t="s">
+        <v>690</v>
+      </c>
+      <c r="D728" t="s">
+        <v>617</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C729" t="s">
+        <v>690</v>
+      </c>
+      <c r="D729" t="s">
+        <v>617</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C730" t="s">
+        <v>690</v>
+      </c>
+      <c r="D730" t="s">
+        <v>617</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C731" t="s">
+        <v>690</v>
+      </c>
+      <c r="D731" t="s">
+        <v>617</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C732" t="s">
+        <v>690</v>
+      </c>
+      <c r="D732" t="s">
+        <v>617</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C733" t="s">
+        <v>750</v>
+      </c>
+      <c r="D733" t="s">
+        <v>617</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C734" t="s">
+        <v>750</v>
+      </c>
+      <c r="D734" t="s">
+        <v>617</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C735" t="s">
+        <v>690</v>
+      </c>
+      <c r="D735" t="s">
+        <v>617</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C736" t="s">
+        <v>750</v>
+      </c>
+      <c r="D736" t="s">
+        <v>617</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C737" t="s">
+        <v>750</v>
+      </c>
+      <c r="D737" t="s">
+        <v>617</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C738" t="s">
+        <v>750</v>
+      </c>
+      <c r="D738" t="s">
+        <v>617</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C739" t="s">
+        <v>690</v>
+      </c>
+      <c r="D739" t="s">
+        <v>617</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C740" t="s">
+        <v>690</v>
+      </c>
+      <c r="D740" t="s">
+        <v>617</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C741" t="s">
+        <v>750</v>
+      </c>
+      <c r="D741" t="s">
+        <v>617</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C742" t="s">
+        <v>690</v>
+      </c>
+      <c r="D742" t="s">
+        <v>617</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C743" t="s">
+        <v>750</v>
+      </c>
+      <c r="D743" t="s">
+        <v>617</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C744" t="s">
+        <v>750</v>
+      </c>
+      <c r="D744" t="s">
+        <v>617</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C745" t="s">
+        <v>750</v>
+      </c>
+      <c r="D745" t="s">
+        <v>617</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C746" t="s">
+        <v>750</v>
+      </c>
+      <c r="D746" t="s">
+        <v>617</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C747" t="s">
+        <v>750</v>
+      </c>
+      <c r="D747" t="s">
+        <v>617</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C748" t="s">
+        <v>750</v>
+      </c>
+      <c r="D748" t="s">
+        <v>617</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C749" t="s">
+        <v>750</v>
+      </c>
+      <c r="D749" t="s">
+        <v>617</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C750" t="s">
+        <v>750</v>
+      </c>
+      <c r="D750" t="s">
+        <v>617</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C751" t="s">
+        <v>750</v>
+      </c>
+      <c r="D751" t="s">
+        <v>617</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C752" t="s">
+        <v>750</v>
+      </c>
+      <c r="D752" t="s">
+        <v>617</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D753" t="s">
+        <v>617</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C754" t="s">
+        <v>750</v>
+      </c>
+      <c r="D754" t="s">
+        <v>617</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C755" t="s">
+        <v>750</v>
+      </c>
+      <c r="D755" t="s">
+        <v>617</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D756" t="s">
+        <v>617</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C757" t="s">
+        <v>750</v>
+      </c>
+      <c r="D757" t="s">
+        <v>617</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C758" t="s">
+        <v>750</v>
+      </c>
+      <c r="D758" t="s">
+        <v>617</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D759" t="s">
+        <v>617</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C760" t="s">
+        <v>750</v>
+      </c>
+      <c r="D760" t="s">
+        <v>617</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C761" t="s">
+        <v>750</v>
+      </c>
+      <c r="D761" t="s">
+        <v>617</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C762" t="s">
+        <v>750</v>
+      </c>
+      <c r="D762" t="s">
+        <v>617</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C763" t="s">
+        <v>750</v>
+      </c>
+      <c r="D763" t="s">
+        <v>617</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C764" t="s">
+        <v>750</v>
+      </c>
+      <c r="D764" t="s">
+        <v>617</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C765" t="s">
+        <v>750</v>
+      </c>
+      <c r="D765" t="s">
+        <v>617</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D766" t="s">
+        <v>617</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C767" t="s">
+        <v>750</v>
+      </c>
+      <c r="D767" t="s">
+        <v>617</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C768" t="s">
+        <v>750</v>
+      </c>
+      <c r="D768" t="s">
+        <v>617</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C769" t="s">
+        <v>690</v>
+      </c>
+      <c r="D769" t="s">
+        <v>617</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C770" t="s">
+        <v>750</v>
+      </c>
+      <c r="D770" t="s">
+        <v>617</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C771" t="s">
+        <v>750</v>
+      </c>
+      <c r="D771" t="s">
+        <v>617</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C772" t="s">
+        <v>750</v>
+      </c>
+      <c r="D772" t="s">
+        <v>617</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C773" t="s">
+        <v>750</v>
+      </c>
+      <c r="D773" t="s">
+        <v>617</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C774" t="s">
+        <v>750</v>
+      </c>
+      <c r="D774" t="s">
+        <v>617</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C775" t="s">
+        <v>750</v>
+      </c>
+      <c r="D775" t="s">
+        <v>617</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C776" t="s">
+        <v>750</v>
+      </c>
+      <c r="D776" t="s">
+        <v>617</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C777" t="s">
+        <v>750</v>
+      </c>
+      <c r="D777" t="s">
+        <v>617</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C778" t="s">
+        <v>750</v>
+      </c>
+      <c r="D778" t="s">
+        <v>617</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D779" t="s">
+        <v>617</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C780" t="s">
+        <v>750</v>
+      </c>
+      <c r="D780" t="s">
+        <v>617</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C781" t="s">
+        <v>750</v>
+      </c>
+      <c r="D781" t="s">
+        <v>617</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D782" t="s">
+        <v>617</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D783" t="s">
+        <v>617</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D784" t="s">
+        <v>617</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C785" t="s">
+        <v>750</v>
+      </c>
+      <c r="D785" t="s">
+        <v>617</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C786" t="s">
+        <v>750</v>
+      </c>
+      <c r="D786" t="s">
+        <v>617</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C787" t="s">
+        <v>750</v>
+      </c>
+      <c r="D787" t="s">
+        <v>617</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C788" t="s">
+        <v>750</v>
+      </c>
+      <c r="D788" t="s">
+        <v>617</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C789" t="s">
+        <v>750</v>
+      </c>
+      <c r="D789" t="s">
+        <v>617</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C790" t="s">
+        <v>750</v>
+      </c>
+      <c r="D790" t="s">
+        <v>617</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C791" t="s">
+        <v>750</v>
+      </c>
+      <c r="D791" t="s">
+        <v>617</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C792" t="s">
+        <v>750</v>
+      </c>
+      <c r="D792" t="s">
+        <v>617</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C793" t="s">
+        <v>750</v>
+      </c>
+      <c r="D793" t="s">
+        <v>617</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C794" t="s">
+        <v>750</v>
+      </c>
+      <c r="D794" t="s">
+        <v>617</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C795" t="s">
+        <v>750</v>
+      </c>
+      <c r="D795" t="s">
+        <v>617</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C796" t="s">
+        <v>750</v>
+      </c>
+      <c r="D796" t="s">
+        <v>617</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D797" t="s">
+        <v>617</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D798" t="s">
+        <v>617</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D799" t="s">
+        <v>617</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D800" t="s">
+        <v>617</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D801" t="s">
+        <v>617</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C802" t="s">
+        <v>790</v>
+      </c>
+      <c r="D802" t="s">
+        <v>617</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D803" t="s">
+        <v>941</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C804" t="s">
+        <v>750</v>
+      </c>
+      <c r="D804" t="s">
+        <v>617</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>12</v>
+      </c>
+      <c r="B805" t="s">
+        <v>13</v>
+      </c>
+      <c r="C805" t="s">
+        <v>750</v>
+      </c>
+      <c r="D805" t="s">
+        <v>617</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>119</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C807" t="s">
+        <v>750</v>
+      </c>
+      <c r="D807" t="s">
+        <v>617</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C808" t="s">
+        <v>690</v>
+      </c>
+      <c r="D808" t="s">
+        <v>617</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>203</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C809" t="s">
+        <v>672</v>
+      </c>
+      <c r="D809" t="s">
+        <v>617</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D810" t="s">
+        <v>617</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>41</v>
+      </c>
+      <c r="B811" t="s">
+        <v>42</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D811" t="s">
+        <v>617</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D812" t="s">
+        <v>617</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C813" t="s">
+        <v>690</v>
+      </c>
+      <c r="D813" t="s">
+        <v>617</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C814" t="s">
+        <v>672</v>
+      </c>
+      <c r="D814" t="s">
+        <v>617</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>476</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C815" t="s">
+        <v>750</v>
+      </c>
+      <c r="D815" t="s">
+        <v>617</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>489</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D817" t="s">
+        <v>617</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/master mismatches.xlsx
+++ b/data/master mismatches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D81E97-A41B-4478-B10D-C5D5729DD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5069B260-B26A-47E7-A093-1697F1B2F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="1225">
   <si>
     <t>iNaturalist_name</t>
   </si>
@@ -3695,6 +3695,21 @@
   </si>
   <si>
     <t>Amelichloa caudata</t>
+  </si>
+  <si>
+    <t>Cardiospermum halicacabum</t>
+  </si>
+  <si>
+    <t>Malvastrum coromandelianum</t>
+  </si>
+  <si>
+    <t>Malvastrum americanum</t>
+  </si>
+  <si>
+    <t>Spermacoce exilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baeckea crassifolia </t>
   </si>
 </sst>
 </file>
@@ -4047,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD91070-41F0-4C24-BA04-4BAAA333C211}">
-  <dimension ref="A1:E817"/>
+  <dimension ref="A1:E822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
-      <selection activeCell="A735" sqref="A735"/>
+    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
+      <selection activeCell="E823" sqref="E823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17951,6 +17966,91 @@
         <v>813</v>
       </c>
     </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C818" t="s">
+        <v>671</v>
+      </c>
+      <c r="D818" t="s">
+        <v>617</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C819" t="s">
+        <v>671</v>
+      </c>
+      <c r="D819" t="s">
+        <v>617</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C820" t="s">
+        <v>671</v>
+      </c>
+      <c r="D820" t="s">
+        <v>617</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C821" t="s">
+        <v>671</v>
+      </c>
+      <c r="D821" t="s">
+        <v>617</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>72</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C822" t="s">
+        <v>655</v>
+      </c>
+      <c r="D822" t="s">
+        <v>617</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/master mismatches.xlsx
+++ b/data/master mismatches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5069B260-B26A-47E7-A093-1697F1B2F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D29755-D16C-4095-B822-776B11DA6C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="1257">
   <si>
     <t>iNaturalist_name</t>
   </si>
@@ -3710,16 +3710,125 @@
   </si>
   <si>
     <t xml:space="preserve">Baeckea crassifolia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planchonella myrsinoides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planchonella pubescens </t>
+  </si>
+  <si>
+    <t>matched name should actually be Planchonella reticulata</t>
+  </si>
+  <si>
+    <t>Sphaeranthus indicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heliotropium ovalifolium </t>
+  </si>
+  <si>
+    <t>Ocimum tenuiflorum</t>
+  </si>
+  <si>
+    <t>Boerhavia diffusa</t>
+  </si>
+  <si>
+    <t>Ipomoea aquatica</t>
+  </si>
+  <si>
+    <t>Carex echinata</t>
+  </si>
+  <si>
+    <t>Globba marantina</t>
+  </si>
+  <si>
+    <t>Paspalum vaginatum</t>
+  </si>
+  <si>
+    <t>Cucumis melo</t>
+  </si>
+  <si>
+    <t>Albizia procera</t>
+  </si>
+  <si>
+    <t>Eriosema chinense</t>
+  </si>
+  <si>
+    <t>Melochia corchorifolia</t>
+  </si>
+  <si>
+    <t>Alchemilla xanthochlora</t>
+  </si>
+  <si>
+    <t>Murraya paniculata</t>
+  </si>
+  <si>
+    <t>erroneously annotated as non-native on iNat</t>
+  </si>
+  <si>
+    <t>add to iM5</t>
+  </si>
+  <si>
+    <t>add to iM6</t>
+  </si>
+  <si>
+    <t>add to iM7</t>
+  </si>
+  <si>
+    <t>add to iM8</t>
+  </si>
+  <si>
+    <t>add to iM9</t>
+  </si>
+  <si>
+    <t>add to iM10</t>
+  </si>
+  <si>
+    <t>add to iM11</t>
+  </si>
+  <si>
+    <t>add to iM12</t>
+  </si>
+  <si>
+    <t>add to iM13</t>
+  </si>
+  <si>
+    <t>add to iM14</t>
+  </si>
+  <si>
+    <t>add to iM15</t>
+  </si>
+  <si>
+    <t>add to iM16</t>
+  </si>
+  <si>
+    <t>add to iM17</t>
+  </si>
+  <si>
+    <t>add to iM18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3745,9 +3854,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4062,10 +4172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD91070-41F0-4C24-BA04-4BAAA333C211}">
-  <dimension ref="A1:E822"/>
+  <dimension ref="A1:E837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
-      <selection activeCell="E823" sqref="E823"/>
+    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="H830" sqref="H830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18051,7 +18161,263 @@
         <v>813</v>
       </c>
     </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D823" t="s">
+        <v>941</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/master mismatches.xlsx
+++ b/data/master mismatches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D29755-D16C-4095-B822-776B11DA6C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AEB45C-1A73-4B3C-93B3-09E51D7AD2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E18B092A-E46D-49FE-B415-1528084BB7EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="1247">
   <si>
     <t>iNaturalist_name</t>
   </si>
@@ -3769,43 +3769,13 @@
     <t>add to iM5</t>
   </si>
   <si>
-    <t>add to iM6</t>
-  </si>
-  <si>
-    <t>add to iM7</t>
-  </si>
-  <si>
-    <t>add to iM8</t>
-  </si>
-  <si>
-    <t>add to iM9</t>
-  </si>
-  <si>
-    <t>add to iM10</t>
-  </si>
-  <si>
-    <t>add to iM11</t>
-  </si>
-  <si>
-    <t>add to iM12</t>
-  </si>
-  <si>
-    <t>add to iM13</t>
-  </si>
-  <si>
-    <t>add to iM14</t>
-  </si>
-  <si>
-    <t>add to iM15</t>
-  </si>
-  <si>
-    <t>add to iM16</t>
-  </si>
-  <si>
-    <t>add to iM17</t>
-  </si>
-  <si>
-    <t>add to iM18</t>
+    <t>Callistemon pinifolius</t>
+  </si>
+  <si>
+    <t>didn't get matched</t>
+  </si>
+  <si>
+    <t>Melaleuca linearis acerosa</t>
   </si>
 </sst>
 </file>
@@ -4172,10 +4142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD91070-41F0-4C24-BA04-4BAAA333C211}">
-  <dimension ref="A1:E837"/>
+  <dimension ref="A1:E838"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
-      <selection activeCell="H830" sqref="H830"/>
+      <selection activeCell="B847" sqref="B847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18206,7 +18176,7 @@
         <v>1242</v>
       </c>
       <c r="D825" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E825" s="1" t="s">
         <v>813</v>
@@ -18223,7 +18193,7 @@
         <v>1242</v>
       </c>
       <c r="D826" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E826" s="1" t="s">
         <v>813</v>
@@ -18240,7 +18210,7 @@
         <v>1242</v>
       </c>
       <c r="D827" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>813</v>
@@ -18257,7 +18227,7 @@
         <v>1242</v>
       </c>
       <c r="D828" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E828" s="1" t="s">
         <v>813</v>
@@ -18274,7 +18244,7 @@
         <v>1242</v>
       </c>
       <c r="D829" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="E829" s="1" t="s">
         <v>813</v>
@@ -18291,7 +18261,7 @@
         <v>1242</v>
       </c>
       <c r="D830" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="E830" s="1" t="s">
         <v>813</v>
@@ -18308,7 +18278,7 @@
         <v>1242</v>
       </c>
       <c r="D831" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="E831" s="1" t="s">
         <v>813</v>
@@ -18325,7 +18295,7 @@
         <v>1242</v>
       </c>
       <c r="D832" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E832" s="1" t="s">
         <v>813</v>
@@ -18342,7 +18312,7 @@
         <v>1242</v>
       </c>
       <c r="D833" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="E833" s="1" t="s">
         <v>813</v>
@@ -18359,7 +18329,7 @@
         <v>1242</v>
       </c>
       <c r="D834" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="E834" s="1" t="s">
         <v>813</v>
@@ -18376,7 +18346,7 @@
         <v>1242</v>
       </c>
       <c r="D835" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>813</v>
@@ -18393,7 +18363,7 @@
         <v>1242</v>
       </c>
       <c r="D836" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="E836" s="1" t="s">
         <v>813</v>
@@ -18410,9 +18380,26 @@
         <v>1242</v>
       </c>
       <c r="D837" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="E837" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E838" s="1" t="s">
         <v>813</v>
       </c>
     </row>
